--- a/week5/week5_pro.xlsx
+++ b/week5/week5_pro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changsong/Desktop/LeetCode/week5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8FDDF3-9C1F-814A-9D6B-A626C132FB47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38549DC1-224A-0E4E-8A00-5AC7AE3C82CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>题目编号</t>
   </si>
@@ -56,54 +56,72 @@
   </si>
   <si>
     <t>判断有效的括号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>O(n)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>创建一个栈用来存放遇到的左括号，遇到左括号就加到栈里。每当遇到右括号时，判断其是否和栈最顶端的左括号配对，如果配对则从栈中移除这个左括号，若不配对则返回false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最近的请求次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>queue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用队列存储ping，当收到t时的ping时，将其加入队列，并将t-3000之前的ping移出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>O(ping的次数)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>简化路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用stack存放我们转换过的路径。先把原先的路径按'/'split成列表。如果元素是'..'，并且stack中还有元素，说明要返回上一层，就把stack顶部的元素去掉。如果元素为空或者是'.'，说明还在当前这层，不用加到stack里，反之加到stack里。最后用‘/’把stack连起来即可。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/changsong321/LeetCode/blob/master/week5/20.%20valid%20parentheses.py</t>
+  </si>
+  <si>
+    <t>https://github.com/changsong321/LeetCode/blob/master/week5/71.%20simplify%20path.py</t>
+  </si>
+  <si>
+    <t>https://github.com/changsong321/LeetCode/blob/master/week5/933.%20number%20of%20recent%20calls.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -140,10 +158,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,18 +178,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -443,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -500,6 +523,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="48">
       <c r="A3" s="1">
@@ -520,6 +546,9 @@
       <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="128">
       <c r="A4" s="1">
@@ -540,6 +569,9 @@
       <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -550,12 +582,15 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" tooltip="https://leetcode.com/problems/valid-parentheses/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" tooltip="https://leetcode.com/problems/number-of-recent-calls/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B4" r:id="rId3" tooltip="https://leetcode.com/problems/simplify-path/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B5" r:id="rId4" tooltip="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G2" r:id="rId5" display="https://github.com/changsong321/LeetCode/blob/master/week5/20. valid parentheses.py" xr:uid="{A1647B8F-EC32-7D47-95B1-3E3C2537C113}"/>
+    <hyperlink ref="G4" r:id="rId6" display="https://github.com/changsong321/LeetCode/blob/master/week5/71. simplify path.py" xr:uid="{F3E5A7E6-0493-8B4D-BA7C-E908C6D478B0}"/>
+    <hyperlink ref="G3" r:id="rId7" display="https://github.com/changsong321/LeetCode/blob/master/week5/933. number of recent calls.py" xr:uid="{D51892F7-9A6A-7742-902E-F3133267A2F2}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
